--- a/Copypegaeditedanual.xlsx
+++ b/Copypegaeditedanual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\AppData\Local\Programs\Python\Python312\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174234FE-8795-461F-8DA7-5875BF79616C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3D0365-60DE-435E-9437-4A5E49D977A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="122">
   <si>
     <t>Ir al menu</t>
   </si>
@@ -267,6 +267,9 @@
     <t>Ceremonias</t>
   </si>
   <si>
+    <t>Grupos de Estudio</t>
+  </si>
+  <si>
     <t>Total Gastos actividades</t>
   </si>
   <si>
@@ -393,26 +396,17 @@
     <t>Diferencia entre ingresos, gastos e inversion en equipo y edificio</t>
   </si>
   <si>
-    <t>Trabajos varios de mantenimiento relacionados con venida de Roshi</t>
-  </si>
-  <si>
-    <t>Seshin Abril 2023</t>
-  </si>
-  <si>
-    <t>Vista Marzo y Junio 2023</t>
+    <t>2022: Portón de Bambú</t>
   </si>
   <si>
     <t>2022: Proyector 2023: Proyector y computadora</t>
-  </si>
-  <si>
-    <t>2022: Porton de Bambu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +450,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -547,7 +542,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -618,7 +613,6 @@
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="2"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -628,32 +622,10 @@
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -937,13 +909,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E170"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.77734375" customWidth="1"/>
     <col min="2" max="2" width="3.21875" bestFit="1" customWidth="1"/>
@@ -953,7 +925,7 @@
     <col min="6" max="6" width="34.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +935,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -973,7 +945,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -987,7 +959,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +973,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
@@ -1009,7 +981,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +995,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1031,23 +1003,23 @@
       <c r="E7" s="2"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>2023</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27">
+      <c r="C8" s="27"/>
+      <c r="D8" s="26">
         <v>2022</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1055,7 +1027,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1066,22 +1038,22 @@
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="9">
-        <v>647962.16</v>
+        <v>613000.13</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="9">
-        <v>609696.6</v>
+        <v>1385866.68</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1095,35 +1067,35 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="20">
-        <v>0</v>
+      <c r="C13" s="14">
+        <v>150000</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="14">
-        <v>120000</v>
+        <v>169997.06</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="9">
-        <v>647962.16</v>
+        <v>763000.13</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="9">
-        <v>729696.6</v>
+        <v>1555863.74</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1131,7 +1103,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
@@ -1141,13 +1113,13 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="7">
-        <v>0</v>
+      <c r="C17" s="9">
+        <v>814142</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="7">
@@ -1155,7 +1127,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1165,11 +1137,11 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="9">
-        <v>439712.6</v>
+        <v>1238381.3799999999</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1183,7 +1155,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="27" customHeight="1">
+    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -1197,35 +1169,35 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="9">
-        <v>45000</v>
+        <v>130485.56</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="7">
-        <v>0</v>
+      <c r="E21" s="9">
+        <v>135000.09</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="9">
-        <v>20000</v>
+        <v>44000</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="9">
-        <v>46000</v>
+        <v>10000</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -1239,21 +1211,21 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="9">
-        <v>65000</v>
+        <v>988627.56</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="9">
-        <v>485712.6</v>
+        <v>1383381.47</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1261,7 +1233,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1269,7 +1241,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>21</v>
       </c>
@@ -1279,21 +1251,21 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="9">
-        <v>94064</v>
+      <c r="C28" s="7">
+        <v>0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="9">
-        <v>31000</v>
+        <v>174352.33</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1303,11 +1275,11 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="9">
-        <v>124999.87</v>
+        <v>53000</v>
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
@@ -1321,7 +1293,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="27" customHeight="1">
+    <row r="31" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -1335,7 +1307,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -1349,21 +1321,21 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="9">
-        <v>94064</v>
+      <c r="C33" s="7">
+        <v>0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="9">
-        <v>155999.87</v>
+        <v>227352.33</v>
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1371,7 +1343,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>28</v>
       </c>
@@ -1381,7 +1353,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -1391,11 +1363,11 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="9">
-        <v>47810.7</v>
+        <v>55020.35</v>
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -1409,7 +1381,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
@@ -1423,7 +1395,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -1433,11 +1405,11 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="9">
-        <v>47810.7</v>
+        <v>55020.35</v>
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1445,7 +1417,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>33</v>
       </c>
@@ -1455,27 +1427,27 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="9">
-        <v>339993.45</v>
+      <c r="C42" s="7">
+        <v>0</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="9">
-        <v>363991.3</v>
+      <c r="E42" s="7">
+        <v>0</v>
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="20">
-        <v>501.85</v>
+        <v>250.7</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="20">
@@ -1483,21 +1455,21 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="9">
-        <v>340495.3</v>
+      <c r="C44" s="7">
+        <v>250.7</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="9">
-        <v>363991.3</v>
+      <c r="E44" s="7">
+        <v>0</v>
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1505,7 +1477,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>37</v>
       </c>
@@ -1515,7 +1487,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
@@ -1529,7 +1501,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
@@ -1543,13 +1515,13 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="7">
-        <v>0</v>
+      <c r="C49" s="9">
+        <v>75500</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="7">
@@ -1557,7 +1529,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>41</v>
       </c>
@@ -1571,21 +1543,21 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="7">
-        <v>0</v>
+      <c r="C51" s="9">
+        <v>11000</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="7">
-        <v>0</v>
+      <c r="E51" s="9">
+        <v>15999.99</v>
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>43</v>
       </c>
@@ -1599,7 +1571,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>44</v>
       </c>
@@ -1613,7 +1585,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>45</v>
       </c>
@@ -1627,7 +1599,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>46</v>
       </c>
@@ -1641,7 +1613,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>47</v>
       </c>
@@ -1655,7 +1627,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
@@ -1669,13 +1641,13 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="58" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="14">
-        <v>20000</v>
+      <c r="C58" s="20">
+        <v>0</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="20">
@@ -1683,21 +1655,21 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="9">
-        <v>20000</v>
+        <v>86500</v>
       </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="7">
-        <v>0</v>
+      <c r="E59" s="9">
+        <v>15999.99</v>
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1705,21 +1677,21 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="15">
-        <v>1167521.46</v>
+        <v>1838378.39</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="15">
-        <v>1783211.07</v>
+        <v>3237617.88</v>
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1727,23 +1699,23 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="26">
         <v>2023</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="27">
+      <c r="C63" s="27"/>
+      <c r="D63" s="26">
         <v>2022</v>
       </c>
-      <c r="E63" s="28"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1751,7 +1723,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>53</v>
       </c>
@@ -1761,27 +1733,27 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="7">
-        <v>0</v>
+      <c r="C66" s="9">
+        <v>350000</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="9">
-        <v>310000</v>
+        <v>223000</v>
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="27" customHeight="1">
+    <row r="67" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="9">
-        <v>45000</v>
+      <c r="C67" s="7">
+        <v>0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="9">
@@ -1789,7 +1761,7 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>56</v>
       </c>
@@ -1803,7 +1775,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" ht="40.799999999999997" customHeight="1" thickBot="1">
+    <row r="69" spans="1:6" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>57</v>
       </c>
@@ -1812,26 +1784,26 @@
         <v>0</v>
       </c>
       <c r="D69" s="2"/>
-      <c r="E69" s="20">
-        <v>0</v>
+      <c r="E69" s="14">
+        <v>20000</v>
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="9">
-        <v>45000</v>
+        <v>350000</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="9">
-        <v>340000</v>
+        <v>273000</v>
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1839,41 +1811,41 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="9">
-        <v>21575</v>
+      <c r="C72" s="7">
+        <v>0</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="9">
-        <v>16115</v>
+      <c r="E72" s="7">
+        <v>0</v>
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="9">
-        <v>16800</v>
+      <c r="C73" s="7">
+        <v>0</v>
       </c>
       <c r="D73" s="2"/>
-      <c r="E73" s="7">
-        <v>0</v>
+      <c r="E73" s="9">
+        <v>5000</v>
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="27.6" customHeight="1" thickBot="1">
+    <row r="74" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="20">
-        <v>0</v>
+      <c r="C74" s="14">
+        <v>99524.45</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="20">
@@ -1881,21 +1853,21 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="9">
-        <v>38375</v>
+        <v>99524.45</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="9">
-        <v>16115</v>
+        <v>5000</v>
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1903,7 +1875,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>62</v>
       </c>
@@ -1917,7 +1889,7 @@
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="78" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="5"/>
@@ -1925,21 +1897,21 @@
       <c r="E78" s="5"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="9">
-        <v>83375</v>
+        <v>449524.45</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="9">
-        <v>356115</v>
+        <v>278000</v>
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1947,7 +1919,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1955,7 +1927,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>64</v>
       </c>
@@ -1965,7 +1937,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>65</v>
       </c>
@@ -1979,7 +1951,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>66</v>
       </c>
@@ -1993,7 +1965,7 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" ht="27" customHeight="1">
+    <row r="85" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>67</v>
       </c>
@@ -2007,7 +1979,7 @@
       </c>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -2021,7 +1993,7 @@
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" ht="27" customHeight="1">
+    <row r="87" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>69</v>
       </c>
@@ -2035,7 +2007,7 @@
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>70</v>
       </c>
@@ -2049,7 +2021,7 @@
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="89" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>71</v>
       </c>
@@ -2063,7 +2035,7 @@
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>72</v>
       </c>
@@ -2077,13 +2049,13 @@
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="9">
-        <v>58565</v>
+        <v>19000</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="7">
@@ -2091,41 +2063,41 @@
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="7">
-        <v>0</v>
+      <c r="C92" s="9">
+        <v>57891</v>
       </c>
       <c r="D92" s="2"/>
-      <c r="E92" s="7">
-        <v>0</v>
+      <c r="E92" s="9">
+        <v>75065</v>
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="7">
-        <v>0</v>
+      <c r="C93" s="9">
+        <v>107832</v>
       </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="9">
-        <v>29348</v>
+      <c r="E93" s="7">
+        <v>0</v>
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="7">
-        <v>0</v>
+      <c r="C94" s="9">
+        <v>70985</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="7">
@@ -2133,7 +2105,7 @@
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" ht="27" customHeight="1">
+    <row r="95" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>75</v>
       </c>
@@ -2147,7 +2119,7 @@
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>76</v>
       </c>
@@ -2161,95 +2133,95 @@
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="7">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="7">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="20">
-        <v>0</v>
-      </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="20">
-        <v>0</v>
-      </c>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="9">
-        <v>58565</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="9">
-        <v>29348</v>
+      <c r="C98" s="20">
+        <v>0</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="20">
+        <v>0</v>
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="2"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="C99" s="9">
+        <v>255708</v>
+      </c>
       <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="E99" s="9">
+        <v>75065</v>
+      </c>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="13" t="s">
-        <v>78</v>
-      </c>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="22">
-        <v>0</v>
-      </c>
-      <c r="D101" s="16"/>
-      <c r="E101" s="17">
-        <v>70540</v>
-      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="17">
-        <v>146912.94</v>
+        <v>77460</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="17">
-        <v>22366.73</v>
+        <v>67625</v>
       </c>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B103" s="16"/>
-      <c r="C103" s="22">
-        <v>0</v>
+      <c r="C103" s="17">
+        <v>47454.26</v>
       </c>
       <c r="D103" s="16"/>
-      <c r="E103" s="22">
-        <v>0</v>
+      <c r="E103" s="17">
+        <v>21504.18</v>
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>82</v>
       </c>
@@ -2263,7 +2235,7 @@
       </c>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>83</v>
       </c>
@@ -2277,7 +2249,7 @@
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>84</v>
       </c>
@@ -2291,7 +2263,7 @@
       </c>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>85</v>
       </c>
@@ -2305,43 +2277,49 @@
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B108" s="16"/>
-      <c r="C108" s="23">
-        <v>0</v>
-      </c>
-      <c r="D108" s="21"/>
-      <c r="E108" s="23">
+      <c r="C108" s="22">
+        <v>0</v>
+      </c>
+      <c r="D108" s="16"/>
+      <c r="E108" s="22">
         <v>0</v>
       </c>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B109" s="16"/>
-      <c r="C109" s="17">
-        <v>146912.94</v>
-      </c>
-      <c r="D109" s="16"/>
-      <c r="E109" s="17">
-        <v>92906.73</v>
+      <c r="C109" s="23">
+        <v>0</v>
+      </c>
+      <c r="D109" s="21"/>
+      <c r="E109" s="23">
+        <v>0</v>
       </c>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="2"/>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
+      <c r="C110" s="17">
+        <v>124914.26</v>
+      </c>
       <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
+      <c r="E110" s="17">
+        <v>89129.18</v>
+      </c>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -2349,37 +2327,31 @@
       <c r="E111" s="16"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="13" t="s">
-        <v>88</v>
-      </c>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="2" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B113" s="16"/>
-      <c r="C113" s="17">
-        <v>104246.07</v>
-      </c>
+      <c r="C113" s="16"/>
       <c r="D113" s="16"/>
-      <c r="E113" s="22">
-        <v>0</v>
-      </c>
+      <c r="E113" s="16"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B114" s="16"/>
-      <c r="C114" s="22">
-        <v>0</v>
+      <c r="C114" s="17">
+        <v>40600</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="22">
@@ -2387,7 +2359,7 @@
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>91</v>
       </c>
@@ -2396,26 +2368,26 @@
         <v>0</v>
       </c>
       <c r="D115" s="16"/>
-      <c r="E115" s="17">
-        <v>11702.02</v>
+      <c r="E115" s="22">
+        <v>0</v>
       </c>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B116" s="16"/>
-      <c r="C116" s="22">
-        <v>0</v>
+      <c r="C116" s="17">
+        <v>9119.68</v>
       </c>
       <c r="D116" s="16"/>
-      <c r="E116" s="22">
-        <v>0</v>
+      <c r="E116" s="17">
+        <v>11323.29</v>
       </c>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>93</v>
       </c>
@@ -2429,7 +2401,7 @@
       </c>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>94</v>
       </c>
@@ -2443,143 +2415,143 @@
       </c>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B119" s="16"/>
-      <c r="C119" s="18">
-        <v>70000</v>
-      </c>
-      <c r="D119" s="21"/>
-      <c r="E119" s="23">
+      <c r="C119" s="22">
+        <v>0</v>
+      </c>
+      <c r="D119" s="16"/>
+      <c r="E119" s="22">
         <v>0</v>
       </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="17">
-        <v>174246.07</v>
-      </c>
-      <c r="D120" s="16"/>
-      <c r="E120" s="17">
-        <v>11702.02</v>
+      <c r="B120" s="16"/>
+      <c r="C120" s="18">
+        <v>8440</v>
+      </c>
+      <c r="D120" s="21"/>
+      <c r="E120" s="23">
+        <v>0</v>
       </c>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="2"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="C121" s="17">
+        <v>58159.68</v>
+      </c>
+      <c r="D121" s="16"/>
+      <c r="E121" s="17">
+        <v>11323.29</v>
+      </c>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="13" t="s">
-        <v>28</v>
-      </c>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="7">
-        <v>0</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="22">
-        <v>0</v>
-      </c>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="2" t="s">
+      <c r="B124" s="2"/>
+      <c r="C124" s="7">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="22">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="7">
-        <v>0</v>
-      </c>
-      <c r="D124" s="16"/>
-      <c r="E124" s="22">
-        <v>0</v>
-      </c>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A125" s="2" t="s">
+      <c r="B125" s="16"/>
+      <c r="C125" s="7">
+        <v>0</v>
+      </c>
+      <c r="D125" s="16"/>
+      <c r="E125" s="22">
+        <v>0</v>
+      </c>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B125" s="16"/>
-      <c r="C125" s="20">
-        <v>0</v>
-      </c>
-      <c r="D125" s="21"/>
-      <c r="E125" s="23">
-        <v>0</v>
-      </c>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" s="7">
-        <v>0</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="7">
+      <c r="B126" s="16"/>
+      <c r="C126" s="20">
+        <v>0</v>
+      </c>
+      <c r="D126" s="21"/>
+      <c r="E126" s="23">
         <v>0</v>
       </c>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="2"/>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="C127" s="7">
+        <v>0</v>
+      </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="E127" s="7">
+        <v>0</v>
+      </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="13" t="s">
-        <v>21</v>
-      </c>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="7">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="7">
-        <v>0</v>
-      </c>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="7">
@@ -2591,103 +2563,109 @@
       </c>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="7">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="7">
+        <v>0</v>
+      </c>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="20">
-        <v>0</v>
-      </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="20">
-        <v>0</v>
-      </c>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="7">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="7">
+      <c r="C132" s="20">
+        <v>0</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="20">
         <v>0</v>
       </c>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="2"/>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="C133" s="7">
+        <v>0</v>
+      </c>
       <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
+      <c r="E133" s="7">
+        <v>0</v>
+      </c>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="13" t="s">
-        <v>98</v>
-      </c>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="2" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="7">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="7">
-        <v>0</v>
-      </c>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A136" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="20">
-        <v>0</v>
-      </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="14">
-        <v>2732.04</v>
+      <c r="C136" s="9">
+        <v>278191.59999999998</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="9">
+        <v>2070202.51</v>
       </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="7">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="9">
-        <v>2732.04</v>
+      <c r="C137" s="14">
+        <v>15273.39</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="14">
+        <v>7751.88</v>
       </c>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="2"/>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="C138" s="9">
+        <v>293464.99</v>
+      </c>
       <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="E138" s="9">
+        <v>2077954.39</v>
+      </c>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2695,33 +2673,27 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="13" t="s">
-        <v>101</v>
-      </c>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" s="7">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="7">
-        <v>0</v>
-      </c>
-      <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="7">
@@ -2733,23 +2705,23 @@
       </c>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="7">
         <v>0</v>
       </c>
       <c r="D143" s="2"/>
-      <c r="E143" s="9">
-        <v>53000</v>
+      <c r="E143" s="7">
+        <v>0</v>
       </c>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="7">
@@ -2761,9 +2733,9 @@
       </c>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="7">
@@ -2775,9 +2747,9 @@
       </c>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="7">
@@ -2789,11 +2761,11 @@
       </c>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B147" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="B147" s="2"/>
       <c r="C147" s="7">
         <v>0</v>
       </c>
@@ -2803,7 +2775,7 @@
       </c>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>103</v>
       </c>
@@ -2817,11 +2789,11 @@
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B149" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="B149" s="16"/>
       <c r="C149" s="7">
         <v>0</v>
       </c>
@@ -2831,145 +2803,145 @@
       </c>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="7">
         <v>0</v>
       </c>
       <c r="D150" s="2"/>
-      <c r="E150" s="9">
-        <v>52000</v>
+      <c r="E150" s="7">
+        <v>0</v>
       </c>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="7">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="9">
+        <v>269404</v>
+      </c>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="9">
-        <v>40000</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" s="7">
-        <v>0</v>
-      </c>
-      <c r="F151" s="2"/>
-    </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A152" s="2" t="s">
+      <c r="B152" s="2"/>
+      <c r="C152" s="9">
+        <v>12255</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" s="7">
+        <v>0</v>
+      </c>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="20">
-        <v>0</v>
-      </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="20">
-        <v>0</v>
-      </c>
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="9">
-        <v>40000</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" s="9">
-        <v>105000</v>
+      <c r="C153" s="20">
+        <v>0</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="20">
+        <v>0</v>
       </c>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A154" s="2"/>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
+      <c r="C154" s="9">
+        <v>12255</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" s="9">
+        <v>269404</v>
+      </c>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A155" s="3" t="s">
-        <v>106</v>
-      </c>
+    <row r="155" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="2"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="19">
-        <v>503099.01</v>
-      </c>
+      <c r="C155" s="5"/>
       <c r="D155" s="5"/>
-      <c r="E155" s="19">
-        <v>597803.79</v>
-      </c>
+      <c r="E155" s="5"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A156" s="2"/>
+    <row r="156" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="5"/>
+      <c r="C156" s="19">
+        <v>1194026.3799999999</v>
+      </c>
       <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
+      <c r="E156" s="19">
+        <v>2800875.86</v>
+      </c>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A157" s="3" t="s">
-        <v>107</v>
-      </c>
+    <row r="157" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="2"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="19">
-        <v>664422.44999999995</v>
-      </c>
+      <c r="C157" s="5"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="19">
-        <v>1185407.28</v>
-      </c>
+      <c r="E157" s="5"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="2"/>
+    <row r="158" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
+      <c r="C158" s="19">
+        <v>644352.01</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="19">
+        <v>436742.01</v>
+      </c>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B159" s="27">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B160" s="26">
         <v>2023</v>
       </c>
-      <c r="C159" s="28"/>
-      <c r="D159" s="27">
+      <c r="C160" s="27"/>
+      <c r="D160" s="26">
         <v>2022</v>
       </c>
-      <c r="E159" s="28"/>
-      <c r="F159" s="10" t="s">
+      <c r="E160" s="27"/>
+      <c r="F160" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="7">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="9">
-        <v>1051175</v>
-      </c>
-      <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>110</v>
       </c>
@@ -2978,12 +2950,12 @@
         <v>0</v>
       </c>
       <c r="D161" s="2"/>
-      <c r="E161" s="7">
-        <v>0</v>
+      <c r="E161" s="9">
+        <v>1322290</v>
       </c>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>111</v>
       </c>
@@ -2997,7 +2969,7 @@
       </c>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>112</v>
       </c>
@@ -3011,7 +2983,7 @@
       </c>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>113</v>
       </c>
@@ -3025,7 +2997,7 @@
       </c>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>114</v>
       </c>
@@ -3039,7 +3011,7 @@
       </c>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>115</v>
       </c>
@@ -3053,62 +3025,76 @@
       </c>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="20">
-        <v>0</v>
-      </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="20">
-        <v>0</v>
+      <c r="C167" s="7">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" s="9">
+        <v>88000</v>
       </c>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="7">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="9">
-        <v>1051175</v>
+      <c r="C168" s="20">
+        <v>0</v>
+      </c>
+      <c r="D168" s="5"/>
+      <c r="E168" s="20">
+        <v>0</v>
       </c>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A169" s="2"/>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
+      <c r="C169" s="7">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="9">
+        <v>1410290</v>
+      </c>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A170" s="3" t="s">
-        <v>118</v>
-      </c>
+    <row r="170" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="2"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="19">
-        <v>664422.44999999995</v>
-      </c>
+      <c r="C170" s="5"/>
       <c r="D170" s="5"/>
-      <c r="E170" s="19">
-        <v>134232.28</v>
-      </c>
+      <c r="E170" s="5"/>
       <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="19">
+        <v>644352.01</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="19">
+        <v>-973547.99</v>
+      </c>
+      <c r="F171" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B160:C160"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
@@ -3122,13 +3108,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -3138,7 +3124,7 @@
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3147,7 +3133,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3161,7 +3147,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,7 +3161,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="24"/>
@@ -3183,7 +3169,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -3195,7 +3181,7 @@
       <c r="E5" s="24"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="24"/>
@@ -3203,129 +3189,129 @@
       <c r="E6" s="24"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>2023</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="27">
+      <c r="C7" s="29"/>
+      <c r="D7" s="26">
         <v>2022</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="34"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="24"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="24"/>
-      <c r="D9" s="34"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="24"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="24">
-        <v>4977628.1100000003</v>
-      </c>
-      <c r="D10" s="34"/>
+        <v>5208628.24</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="24">
-        <v>4853594.49</v>
+        <v>6239461.1699999999</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="24">
-        <v>900003.26</v>
-      </c>
-      <c r="D11" s="34"/>
+        <v>1050003.26</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="24">
-        <v>1500009.67</v>
+        <v>1670006.73</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="25">
-        <v>5877631.3700000001</v>
-      </c>
-      <c r="D12" s="34"/>
+        <v>6258631.5</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="25">
-        <v>6353604.1600000001</v>
+        <v>7909467.9000000004</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="34"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="24"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="34"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="24"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="24">
-        <v>832549.2</v>
-      </c>
-      <c r="D15" s="34"/>
+        <v>1529691.2</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="24">
         <v>184000</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="24">
-        <v>467764.08</v>
-      </c>
-      <c r="D16" s="34"/>
+        <v>443264.08</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="24">
-        <v>2059729.31</v>
+        <v>3298110.69</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="27">
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3333,614 +3319,606 @@
       <c r="C17" s="24">
         <v>48750</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="24">
         <v>0</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="24">
-        <v>517982.46</v>
-      </c>
-      <c r="D18" s="34"/>
+        <v>648468.02</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="24">
-        <v>280002.86</v>
+        <v>415002.95</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1" thickBot="1">
+    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="24">
-        <v>258401.08</v>
-      </c>
-      <c r="D19" s="34"/>
+        <v>169401.08</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="24">
-        <v>159000.13</v>
+        <v>169000.13</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="25">
-        <v>2125446.8199999998</v>
-      </c>
-      <c r="D20" s="34"/>
+        <v>2839574.38</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="25">
-        <v>2682732.31</v>
+        <v>4066113.77</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="34"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="24"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13" t="s">
-        <v>21</v>
-      </c>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="34"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="24"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="24">
-        <v>675450.72</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="24">
-        <v>294184.49</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="24">
+        <v>532150.72</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="24">
+        <v>468536.82</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="24">
         <v>126886.39999999999</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="24">
-        <v>821525.3</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="24">
+        <v>874525.3</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="25">
-        <v>802337.12</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="25">
-        <v>1115709.79</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="24"/>
+      <c r="C26" s="25">
+        <v>659037.12</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="25">
+        <v>1343062.13</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13" t="s">
-        <v>28</v>
-      </c>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="24"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="24">
-        <v>0</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="24">
-        <v>47810.7</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="27" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="24">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="24">
+        <v>102831.05</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="25">
-        <v>0</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="25">
-        <v>47810.7</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="24"/>
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="25">
+        <v>102831.05</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13" t="s">
-        <v>33</v>
-      </c>
+    <row r="31" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="34"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="24"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="24">
-        <v>1497460.85</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="24">
-        <v>5315440.0599999996</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1">
-      <c r="A33" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="24">
-        <v>1190.75</v>
-      </c>
-      <c r="D33" s="34"/>
+        <v>1497460.85</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="24">
+        <v>5315440.0599999996</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="24">
+        <v>1441.45</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="24">
         <v>98305.24</v>
       </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="25">
-        <v>1498651.6</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="25">
+        <v>1498902.3</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="25">
         <v>5413745.29</v>
       </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="24"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
-      <c r="A36" s="13" t="s">
-        <v>37</v>
-      </c>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="34"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="24"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="24">
-        <v>58550</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="24">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="24">
-        <v>18000</v>
-      </c>
-      <c r="D38" s="34"/>
+        <v>58550</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="24">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="24">
-        <v>82999.850000000006</v>
-      </c>
-      <c r="D39" s="34"/>
+        <v>93500</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="24">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="24">
-        <v>28000</v>
-      </c>
-      <c r="D40" s="34"/>
+        <v>82999.850000000006</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="24">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="24">
-        <v>0</v>
-      </c>
-      <c r="D41" s="34"/>
+        <v>29000</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="24">
-        <v>4000</v>
+        <v>25999.99</v>
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="24">
-        <v>80000</v>
-      </c>
-      <c r="D42" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="24">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="24">
-        <v>41000</v>
-      </c>
-      <c r="D43" s="34"/>
+        <v>72000</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="24">
         <v>0</v>
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="24">
+        <v>20000</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="24">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="25">
-        <v>308549.84999999998</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="25">
-        <v>32000</v>
-      </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1">
-      <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="24"/>
+      <c r="C45" s="25">
+        <v>356049.85</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="25">
+        <v>47999.99</v>
+      </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="26">
-        <v>10612616.75</v>
-      </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="26">
-        <v>15645602.26</v>
-      </c>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="24"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="31">
+        <v>11612195.15</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="31">
+        <v>18883220.140000001</v>
+      </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C49" s="10">
         <v>2023</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="10">
+      <c r="D49" s="10">
         <v>2022</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="E49" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="13" t="s">
-        <v>53</v>
-      </c>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="24"/>
-      <c r="D50" s="34"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="24"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="52.8">
-      <c r="A51" s="40" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="41">
-        <v>1990933.5</v>
-      </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="41">
-        <v>535000</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="27">
-      <c r="A52" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="24">
-        <v>221000</v>
-      </c>
-      <c r="D52" s="34"/>
+        <v>2265933.5</v>
+      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="24">
-        <v>313000</v>
+        <v>758000</v>
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="27" customHeight="1">
+    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="24">
-        <v>50000</v>
-      </c>
-      <c r="D53" s="34"/>
+        <v>40000</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="24">
-        <v>0</v>
+        <v>343000</v>
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="40.799999999999997" thickBot="1">
+    <row r="54" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="24">
-        <v>80000</v>
-      </c>
-      <c r="D54" s="34"/>
+        <v>30000</v>
+      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="24">
-        <v>16950</v>
+        <v>36950</v>
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="27">
+    <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="25">
-        <v>2341933.5</v>
-      </c>
-      <c r="D55" s="34"/>
+        <v>2335933.5</v>
+      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="25">
-        <v>864950</v>
+        <v>1137950</v>
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="24"/>
-      <c r="D56" s="34"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="24"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="52.8">
-      <c r="A57" s="40" t="s">
+    <row r="57" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="41">
-        <v>1243669.25</v>
-      </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="41">
+      <c r="B57" s="2"/>
+      <c r="C57" s="24">
+        <v>1041580.25</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="24">
         <v>61115</v>
       </c>
-      <c r="F57" s="39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="27">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="24">
-        <v>164900</v>
-      </c>
-      <c r="D58" s="34"/>
+        <v>154900</v>
+      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="24">
-        <v>100931.59</v>
+        <v>105931.59</v>
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="27.6" thickBot="1">
+    <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="24">
-        <v>100497.83</v>
-      </c>
-      <c r="D59" s="34"/>
+        <v>200022.28</v>
+      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="24">
         <v>0</v>
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="27">
+    <row r="60" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="25">
-        <v>1509067.07</v>
-      </c>
-      <c r="D60" s="34"/>
+        <v>1396502.52</v>
+      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="25">
-        <v>162046.59</v>
+        <v>167046.59</v>
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="30"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="24">
-        <v>525550</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="24">
+      <c r="B62" s="28"/>
+      <c r="C62" s="29">
+        <v>495550</v>
+      </c>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29">
         <v>0</v>
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="24"/>
-      <c r="D63" s="34"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="24"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="27" customHeight="1">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="25">
-        <v>3851000.57</v>
-      </c>
-      <c r="D64" s="34"/>
+        <v>3732436.02</v>
+      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="25">
-        <v>1026996.59</v>
+        <v>1304996.5900000001</v>
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="24"/>
-      <c r="D65" s="34"/>
+      <c r="D65" s="2"/>
       <c r="E65" s="24"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="24"/>
-      <c r="D66" s="34"/>
+      <c r="D66" s="2"/>
       <c r="E66" s="24"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="27" customHeight="1">
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -3948,13 +3926,13 @@
       <c r="C67" s="24">
         <v>579055.68000000005</v>
       </c>
-      <c r="D67" s="34"/>
+      <c r="D67" s="2"/>
       <c r="E67" s="24">
         <v>0</v>
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="27">
+    <row r="68" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -3962,13 +3940,13 @@
       <c r="C68" s="24">
         <v>108135</v>
       </c>
-      <c r="D68" s="34"/>
+      <c r="D68" s="2"/>
       <c r="E68" s="24">
         <v>0</v>
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" ht="27" customHeight="1" thickBot="1">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
@@ -3976,13 +3954,13 @@
       <c r="C69" s="24">
         <v>16000</v>
       </c>
-      <c r="D69" s="34"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="24">
         <v>0</v>
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="27" customHeight="1">
+    <row r="70" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
@@ -3994,47 +3972,43 @@
       <c r="E70" s="25">
         <v>0</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="27.6" customHeight="1" thickBot="1">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="24">
-        <v>700614</v>
+        <v>719614</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="24">
         <v>0</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="27" customHeight="1">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="24">
-        <v>202479</v>
+        <v>260370</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="24">
-        <v>149688</v>
+        <v>224753</v>
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="24">
-        <v>91824</v>
+        <v>178241</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="24">
@@ -4042,13 +4016,13 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="24">
-        <v>72340.100000000006</v>
+        <v>143325.1</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="24">
@@ -4056,7 +4030,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
@@ -4070,21 +4044,21 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="25">
-        <v>1915968.26</v>
+        <v>2150261.2599999998</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="25">
-        <v>349718.87</v>
+        <v>424783.87</v>
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="24"/>
@@ -4092,9 +4066,9 @@
       <c r="E77" s="24"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="24"/>
@@ -4102,37 +4076,37 @@
       <c r="E78" s="24"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="24">
-        <v>357620.32</v>
+        <v>435080.32</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="24">
-        <v>448545</v>
+        <v>516170</v>
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="24">
-        <v>282023.46999999997</v>
+        <v>329477.73</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="24">
-        <v>131902.32</v>
+        <v>153406.5</v>
       </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="24">
@@ -4144,137 +4118,137 @@
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="24">
         <v>291986</v>
       </c>
-      <c r="D82" s="37"/>
+      <c r="D82" s="21"/>
       <c r="E82" s="24">
         <v>272513.64</v>
       </c>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="25">
-        <v>935054.79</v>
-      </c>
-      <c r="D83" s="37"/>
+        <v>1059969.05</v>
+      </c>
+      <c r="D83" s="16"/>
       <c r="E83" s="25">
-        <v>852960.96</v>
+        <v>942090.14</v>
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="16"/>
       <c r="C84" s="24"/>
-      <c r="D84" s="37"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="24"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="24"/>
-      <c r="D85" s="37"/>
+      <c r="D85" s="16"/>
       <c r="E85" s="24"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="24">
-        <v>248790.56</v>
-      </c>
-      <c r="D86" s="37"/>
+        <v>255390.56</v>
+      </c>
+      <c r="D86" s="16"/>
       <c r="E86" s="24">
         <v>41285</v>
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="24">
-        <v>56244.85</v>
-      </c>
-      <c r="D87" s="37"/>
+        <v>74526.37</v>
+      </c>
+      <c r="D87" s="16"/>
       <c r="E87" s="24">
-        <v>67237.16</v>
+        <v>78560.45</v>
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="24">
         <v>0</v>
       </c>
-      <c r="D88" s="37"/>
+      <c r="D88" s="16"/>
       <c r="E88" s="24">
         <v>19458.099999999999</v>
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="27">
+    <row r="89" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="24">
         <v>228455</v>
       </c>
-      <c r="D89" s="37"/>
+      <c r="D89" s="16"/>
       <c r="E89" s="24">
         <v>0</v>
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="24">
-        <v>470616.67</v>
-      </c>
-      <c r="D90" s="37"/>
+        <v>409056.67</v>
+      </c>
+      <c r="D90" s="21"/>
       <c r="E90" s="24">
         <v>263402.3</v>
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="25">
-        <v>1004107.08</v>
+        <v>967428.6</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="25">
-        <v>391382.56</v>
+        <v>402705.85</v>
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="24"/>
@@ -4282,7 +4256,7 @@
       <c r="E92" s="24"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>21</v>
       </c>
@@ -4292,7 +4266,7 @@
       <c r="E93" s="24"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
@@ -4306,435 +4280,379 @@
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="25">
         <v>1391290</v>
       </c>
-      <c r="D95" s="34"/>
+      <c r="D95" s="2"/>
       <c r="E95" s="25">
         <v>116290</v>
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="24"/>
-      <c r="D96" s="34"/>
+      <c r="D96" s="2"/>
       <c r="E96" s="24"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="24"/>
-      <c r="D97" s="34"/>
+      <c r="D97" s="2"/>
       <c r="E97" s="24"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="24">
-        <v>7456367.0999999996</v>
-      </c>
-      <c r="D98" s="34"/>
+        <v>7734558.7000000002</v>
+      </c>
+      <c r="D98" s="2"/>
       <c r="E98" s="24">
-        <v>427279.19</v>
+        <v>2497481.7000000002</v>
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="24">
-        <v>44146.13</v>
-      </c>
-      <c r="D99" s="34"/>
+        <v>59419.519999999997</v>
+      </c>
+      <c r="D99" s="5"/>
       <c r="E99" s="24">
-        <v>27311.040000000001</v>
+        <v>35062.92</v>
       </c>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="25">
-        <v>7500513.2400000002</v>
-      </c>
-      <c r="D100" s="34"/>
+        <v>7793978.2199999997</v>
+      </c>
+      <c r="D100" s="2"/>
       <c r="E100" s="25">
-        <v>454590.23</v>
+        <v>2532544.62</v>
       </c>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="24"/>
-      <c r="D101" s="34"/>
+      <c r="D101" s="2"/>
       <c r="E101" s="24"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="13" t="s">
-        <v>101</v>
-      </c>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="24"/>
-      <c r="D102" s="34"/>
+      <c r="D102" s="2"/>
       <c r="E102" s="24"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="24">
-        <v>90000</v>
-      </c>
-      <c r="D103" s="34"/>
-      <c r="E103" s="24">
-        <v>53000</v>
-      </c>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="24">
-        <v>0</v>
-      </c>
-      <c r="D104" s="34"/>
+        <v>90000</v>
+      </c>
+      <c r="D104" s="2"/>
       <c r="E104" s="24">
+        <v>53000</v>
+      </c>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="24">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="24">
         <v>141524.41</v>
       </c>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="16"/>
-      <c r="C105" s="24">
-        <v>105030</v>
-      </c>
-      <c r="D105" s="34"/>
-      <c r="E105" s="24">
-        <v>0</v>
-      </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" ht="27">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="2"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="24">
-        <v>0</v>
-      </c>
-      <c r="D106" s="34"/>
+        <v>105030</v>
+      </c>
+      <c r="D106" s="2"/>
       <c r="E106" s="24">
-        <v>52000</v>
+        <v>0</v>
       </c>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="15" thickBot="1">
+    <row r="107" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="24">
-        <v>40000</v>
-      </c>
-      <c r="D107" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="D107" s="2"/>
       <c r="E107" s="24">
-        <v>0</v>
+        <v>321404</v>
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="25">
-        <v>235030</v>
-      </c>
-      <c r="D108" s="34"/>
-      <c r="E108" s="25">
-        <v>246524.41</v>
+      <c r="C108" s="24">
+        <v>52255</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="24">
+        <v>0</v>
       </c>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" ht="15" thickBot="1">
-      <c r="A109" s="2"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="24"/>
+      <c r="C109" s="25">
+        <v>247285</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="25">
+        <v>515928.41</v>
+      </c>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="3" t="s">
-        <v>106</v>
-      </c>
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="26">
-        <v>16832963.93</v>
-      </c>
-      <c r="D110" s="35"/>
-      <c r="E110" s="26">
-        <v>3438463.62</v>
-      </c>
+      <c r="C110" s="24"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="24"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" ht="27" customHeight="1">
-      <c r="A111" s="2"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="24"/>
+      <c r="C111" s="25">
+        <v>17342648.149999999</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="25">
+        <v>6239339.4900000002</v>
+      </c>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" ht="33.6" customHeight="1">
-      <c r="A112" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="33">
-        <v>-6220347.1799999997</v>
-      </c>
-      <c r="D112" s="35"/>
-      <c r="E112" s="33">
-        <v>12207138.640000001</v>
-      </c>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="24"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="24"/>
+    <row r="113" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="32">
+        <v>-5730453.0099999998</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="32">
+        <v>12643880.65</v>
+      </c>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C114" s="10">
+    <row r="114" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" s="10">
         <v>2023</v>
       </c>
-      <c r="D114" s="36"/>
-      <c r="E114" s="10">
+      <c r="D115" s="10"/>
+      <c r="E115" s="10">
         <v>2022</v>
       </c>
-      <c r="F114" s="10" t="s">
+      <c r="F115" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="24">
-        <v>0</v>
-      </c>
-      <c r="D115" s="34"/>
-      <c r="E115" s="24">
-        <v>1051175</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="26.4">
-      <c r="A116" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B116" s="40"/>
-      <c r="C116" s="41">
-        <f>134485+532851.89</f>
-        <v>667336.89</v>
-      </c>
-      <c r="D116" s="42"/>
-      <c r="E116" s="41">
-        <v>839367.31</v>
-      </c>
-      <c r="F116" s="39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="24">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="24">
+        <v>2373465</v>
+      </c>
+      <c r="F116" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="24">
-        <v>0</v>
-      </c>
-      <c r="D117" s="34"/>
+        <v>667336.89</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" s="24">
+        <v>839367.31</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="24">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="24">
+        <v>88000</v>
+      </c>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="24">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="24">
         <v>137036</v>
       </c>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:6" ht="27">
-      <c r="A118" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="26">
-        <v>667336.89</v>
-      </c>
-      <c r="D118" s="35"/>
-      <c r="E118" s="26">
-        <v>2027578.31</v>
-      </c>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="33"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="40.200000000000003">
+    <row r="120" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="3"/>
-      <c r="C120" s="33">
-        <v>-6887684.0700000003</v>
-      </c>
-      <c r="D120" s="35"/>
-      <c r="E120" s="33">
-        <v>10179560.32</v>
-      </c>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="D121" s="38"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="D122" s="38"/>
-    </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1">
-      <c r="D123" s="38"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="D124" s="38"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="D125" s="38"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="D126" s="38"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="D127" s="38"/>
-    </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1">
-      <c r="D128" s="38"/>
-    </row>
-    <row r="129" spans="4:4">
-      <c r="D129" s="38"/>
-    </row>
-    <row r="130" spans="4:4">
-      <c r="D130" s="38"/>
-    </row>
-    <row r="131" spans="4:4">
-      <c r="D131" s="38"/>
-    </row>
-    <row r="132" spans="4:4">
-      <c r="D132" s="38"/>
-    </row>
-    <row r="133" spans="4:4">
-      <c r="D133" s="38"/>
-    </row>
-    <row r="134" spans="4:4">
-      <c r="D134" s="38"/>
-    </row>
-    <row r="135" spans="4:4">
-      <c r="D135" s="38"/>
-    </row>
-    <row r="136" spans="4:4">
-      <c r="D136" s="38"/>
-    </row>
-    <row r="137" spans="4:4">
-      <c r="D137" s="38"/>
-    </row>
-    <row r="138" spans="4:4">
-      <c r="D138" s="38"/>
-    </row>
-    <row r="139" spans="4:4">
-      <c r="D139" s="38"/>
-    </row>
-    <row r="140" spans="4:4">
-      <c r="D140" s="38"/>
-    </row>
-    <row r="141" spans="4:4">
-      <c r="D141" s="38"/>
-    </row>
-    <row r="142" spans="4:4" ht="27" customHeight="1">
-      <c r="D142" s="38"/>
-    </row>
-    <row r="143" spans="4:4">
-      <c r="D143" s="38"/>
-    </row>
-    <row r="144" spans="4:4" ht="15" customHeight="1">
-      <c r="D144" s="38"/>
-    </row>
-    <row r="145" spans="2:5">
-      <c r="D145" s="38"/>
-    </row>
-    <row r="146" spans="2:5" ht="15" customHeight="1">
-      <c r="D146" s="38"/>
-    </row>
-    <row r="147" spans="2:5" ht="15" customHeight="1">
-      <c r="D147" s="38"/>
-    </row>
-    <row r="148" spans="2:5" ht="15" customHeight="1">
-      <c r="D148" s="38"/>
-    </row>
-    <row r="149" spans="2:5" ht="27.6" customHeight="1"/>
-    <row r="151" spans="2:5">
-      <c r="B151" s="31"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-    </row>
-    <row r="159" spans="2:5" ht="15" customHeight="1" thickBot="1"/>
-    <row r="160" spans="2:5" ht="27" customHeight="1"/>
-    <row r="161" ht="15" customHeight="1" thickBot="1"/>
-    <row r="162" ht="40.799999999999997" customHeight="1" thickBot="1"/>
+      <c r="C120" s="31">
+        <v>667336.89</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="31">
+        <v>3437868.31</v>
+      </c>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="32">
+        <v>-6397789.9000000004</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="32">
+        <v>9206012.3399999999</v>
+      </c>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="150" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="151" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="152" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="153" spans="2:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B155" s="30"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+    </row>
+    <row r="163" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="gid=1453964497" display="gid=1453964497" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
